--- a/data/trans_orig/P41C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{532D71FA-5346-4F0C-8522-30AFD35ADAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC339AF-74DC-4348-A3D5-27782A69DA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA2AF082-599C-4A2B-AA75-2A5C4774BD3E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{28667C24-F2D2-4D91-86B3-F5097EA69010}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población con dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -65,337 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>97,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9827AE-E3F3-4727-AB38-2D1175DEBBE2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E8E6D0-7222-423A-B9DA-B86F8C7F21C0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -928,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6944</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -943,85 +901,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>379</v>
+        <v>2218</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>379</v>
+        <v>9162</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>130</v>
+      </c>
+      <c r="D5" s="7">
+        <v>140148</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>238</v>
+      </c>
+      <c r="I5" s="7">
+        <v>156621</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
-        <v>24102</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>40</v>
-      </c>
-      <c r="I5" s="7">
-        <v>25960</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="N5" s="7">
-        <v>50061</v>
+        <v>296769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1030,153 +988,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>24102</v>
+        <v>147092</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="I6" s="7">
-        <v>26339</v>
+        <v>158839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>65</v>
+        <v>376</v>
       </c>
       <c r="N6" s="7">
-        <v>50440</v>
+        <v>305931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>7207</v>
+        <v>6547</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>1959</v>
+        <v>12074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>9166</v>
+        <v>18621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="D8" s="7">
-        <v>115966</v>
+        <v>485390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>198</v>
+        <v>336</v>
       </c>
       <c r="I8" s="7">
-        <v>140202</v>
+        <v>233979</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>304</v>
+        <v>556</v>
       </c>
       <c r="N8" s="7">
-        <v>256168</v>
+        <v>719369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1185,153 +1143,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="D9" s="7">
-        <v>123173</v>
+        <v>491937</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>201</v>
+        <v>354</v>
       </c>
       <c r="I9" s="7">
-        <v>142161</v>
+        <v>246053</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>311</v>
+        <v>580</v>
       </c>
       <c r="N9" s="7">
-        <v>265334</v>
+        <v>737990</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4362</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>6773</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
       <c r="I10" s="7">
-        <v>13407</v>
+        <v>4843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>20180</v>
+        <v>9204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>303514</v>
+        <v>80177</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>336</v>
+        <v>155</v>
       </c>
       <c r="I11" s="7">
-        <v>256180</v>
+        <v>104035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>556</v>
+        <v>225</v>
       </c>
       <c r="N11" s="7">
-        <v>559694</v>
+        <v>184213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,153 +1298,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="D12" s="7">
-        <v>310287</v>
+        <v>84539</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>354</v>
+        <v>161</v>
       </c>
       <c r="I12" s="7">
-        <v>269587</v>
+        <v>108878</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>236</v>
       </c>
       <c r="N12" s="7">
-        <v>579874</v>
+        <v>193417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4655</v>
+        <v>8639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>5284</v>
+        <v>10303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>9939</v>
+        <v>18942</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="D14" s="7">
-        <v>84511</v>
+        <v>147212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>114525</v>
+        <v>171206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>225</v>
+        <v>386</v>
       </c>
       <c r="N14" s="7">
-        <v>199036</v>
+        <v>318417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,153 +1453,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="D15" s="7">
-        <v>89166</v>
+        <v>155851</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>119809</v>
+        <v>181509</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>236</v>
+        <v>408</v>
       </c>
       <c r="N15" s="7">
-        <v>208975</v>
+        <v>337359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>9145</v>
+        <v>26491</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>11028</v>
+        <v>29437</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>20172</v>
+        <v>55929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>144</v>
+        <v>564</v>
       </c>
       <c r="D17" s="7">
-        <v>151216</v>
+        <v>852928</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>242</v>
+        <v>971</v>
       </c>
       <c r="I17" s="7">
-        <v>186189</v>
+        <v>665842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>386</v>
+        <v>1535</v>
       </c>
       <c r="N17" s="7">
-        <v>337406</v>
+        <v>1518768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,217 +1608,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="D18" s="7">
-        <v>160361</v>
+        <v>879419</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>256</v>
+        <v>1013</v>
       </c>
       <c r="I18" s="7">
-        <v>197217</v>
+        <v>695279</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>408</v>
+        <v>1600</v>
       </c>
       <c r="N18" s="7">
-        <v>357578</v>
+        <v>1574697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>23</v>
-      </c>
-      <c r="D19" s="7">
-        <v>27780</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>32057</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>65</v>
-      </c>
-      <c r="N19" s="7">
-        <v>59837</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>564</v>
-      </c>
-      <c r="D20" s="7">
-        <v>679309</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>971</v>
-      </c>
-      <c r="I20" s="7">
-        <v>723056</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1535</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1402365</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>587</v>
-      </c>
-      <c r="D21" s="7">
-        <v>707089</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I21" s="7">
-        <v>755113</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1600</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1462202</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
